--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G828"/>
+  <dimension ref="A1:G760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19814,10 +19814,8 @@
       </c>
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="736">
@@ -19839,10 +19837,8 @@
       </c>
       <c r="E736" t="inlineStr"/>
       <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="737">
@@ -19864,10 +19860,8 @@
       </c>
       <c r="E737" t="inlineStr"/>
       <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -19889,10 +19883,8 @@
       </c>
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr"/>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="739">
@@ -19910,10 +19902,8 @@
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -19935,10 +19925,8 @@
       </c>
       <c r="E740" t="inlineStr"/>
       <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -19956,10 +19944,8 @@
       <c r="D741" t="inlineStr"/>
       <c r="E741" t="inlineStr"/>
       <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -19977,213 +19963,167 @@
       </c>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+        </is>
+      </c>
       <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr"/>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr"/>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr"/>
       <c r="F744" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F745" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E746" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F746" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
       <c r="G746" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E747" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F747" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
       <c r="G747" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F748" t="inlineStr"/>
       <c r="G748" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E749" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F749" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr">
         <is>
           <t>3</t>
@@ -20193,26 +20133,22 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C750" t="inlineStr"/>
       <c r="D750" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>4.748%</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F750" t="inlineStr"/>
       <c r="G750" t="inlineStr">
         <is>
           <t>3</t>
@@ -20222,30 +20158,18 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F751" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
       <c r="G751" t="inlineStr">
         <is>
           <t>3</t>
@@ -20255,158 +20179,170 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr"/>
       <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F752" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C753" t="inlineStr"/>
       <c r="D753" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
       <c r="F753" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr"/>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr"/>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr"/>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr"/>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr"/>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E756" t="inlineStr"/>
-      <c r="F756" t="inlineStr"/>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr"/>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C758" t="inlineStr"/>
@@ -20415,27 +20351,23 @@
       <c r="F758" t="inlineStr"/>
       <c r="G758" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="inlineStr"/>
       <c r="G759" t="inlineStr">
@@ -20447,1671 +20379,15 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr"/>
       <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
+      <c r="D760" t="inlineStr"/>
       <c r="E760" t="inlineStr"/>
       <c r="F760" t="inlineStr"/>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr"/>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr"/>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr"/>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr"/>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr"/>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr"/>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr"/>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr"/>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr"/>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr"/>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr"/>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr"/>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr"/>
-      <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr"/>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr"/>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr"/>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr"/>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr"/>
-      <c r="G802" t="inlineStr"/>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr"/>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr"/>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr"/>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr"/>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr"/>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr"/>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr"/>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr"/>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr"/>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr"/>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr"/>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr"/>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr"/>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr"/>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr"/>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr"/>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr"/>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr"/>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20194,10 +20194,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20227,10 +20225,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20256,10 +20252,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20285,10 +20279,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20318,10 +20310,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20351,10 +20341,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20380,10 +20368,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20413,10 +20399,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20446,10 +20430,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20479,10 +20461,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20508,10 +20488,8 @@
         </is>
       </c>
       <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20533,10 +20511,8 @@
       </c>
       <c r="E764" t="inlineStr"/>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20558,10 +20534,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20583,10 +20557,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20608,10 +20580,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20629,10 +20599,8 @@
       <c r="D768" t="inlineStr"/>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="769">
@@ -20654,10 +20622,8 @@
       </c>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -20675,10 +20641,8 @@
       <c r="D770" t="inlineStr"/>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -20696,213 +20660,183 @@
       </c>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>PPIFEB</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>147.716</t>
+        </is>
+      </c>
       <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>148.1</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>3</t>
@@ -20912,26 +20846,18 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
+      <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -20941,30 +20867,18 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
           <t>3</t>
@@ -20974,30 +20888,22 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21007,26 +20913,18 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21036,127 +20934,155 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
           <t>3</t>
@@ -21166,20 +21092,16 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
@@ -21191,30 +21113,18 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
           <t>3</t>
@@ -21222,1615 +21132,17 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr"/>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr"/>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr"/>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr"/>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr"/>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,10 +20198,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20235,10 +20233,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20268,10 +20264,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20301,10 +20295,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20338,10 +20330,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20375,10 +20365,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20408,10 +20396,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20445,10 +20431,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20482,10 +20466,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20511,10 +20493,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20548,10 +20528,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20577,10 +20555,8 @@
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20602,10 +20578,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20627,10 +20601,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20652,10 +20624,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20677,10 +20647,8 @@
       </c>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -20698,10 +20666,8 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -20723,10 +20689,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -20744,213 +20708,187 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>PPIFEB</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>147.716</t>
+        </is>
+      </c>
       <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>148.1</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>-80Bcf</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>3</t>
@@ -20960,26 +20898,18 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
+      <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -20989,30 +20919,18 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
           <t>3</t>
@@ -21022,30 +20940,22 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21055,26 +20965,18 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21084,127 +20986,155 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
           <t>3</t>
@@ -21214,20 +21144,16 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
@@ -21239,30 +21165,18 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
           <t>3</t>
@@ -21270,1619 +21184,17 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr"/>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr"/>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr"/>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr"/>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,10 +20198,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20235,10 +20233,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20268,10 +20264,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20301,10 +20295,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20338,10 +20330,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20375,10 +20365,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20408,10 +20396,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20445,10 +20431,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20482,10 +20466,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20511,10 +20493,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20548,10 +20528,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20581,10 +20559,8 @@
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20610,10 +20586,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20639,10 +20613,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20668,10 +20640,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20697,10 +20667,8 @@
       </c>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -20718,10 +20686,8 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -20743,10 +20709,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -20764,213 +20728,187 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>PPIFEB</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>147.716</t>
+        </is>
+      </c>
       <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>148.1</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>-80Bcf</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D777" t="inlineStr"/>
       <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>3</t>
@@ -20980,26 +20918,22 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>5.79%</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -21009,30 +20943,22 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
           <t>3</t>
@@ -21042,30 +20968,22 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21075,26 +20993,18 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21104,127 +21014,155 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
           <t>3</t>
@@ -21234,20 +21172,16 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
@@ -21259,30 +21193,18 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
           <t>3</t>
@@ -21290,1631 +21212,17 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr"/>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr"/>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,10 +20198,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20235,10 +20233,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20268,10 +20264,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20301,10 +20295,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20338,10 +20330,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20375,10 +20365,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20408,10 +20396,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20445,10 +20431,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20482,10 +20466,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20511,10 +20493,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20548,10 +20528,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20581,10 +20559,8 @@
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20610,10 +20586,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20639,10 +20613,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20668,10 +20640,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20697,10 +20667,8 @@
       </c>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -20718,10 +20686,8 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -20743,10 +20709,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -20764,213 +20728,187 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAR/08</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr"/>
       <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>PPIFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>147.716</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>148.1</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr"/>
       <c r="F776" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>-80Bcf</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>3</t>
@@ -20980,26 +20918,18 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
+      <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -21009,30 +20939,22 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+          <t>5.79%</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
           <t>3</t>
@@ -21042,30 +20964,22 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21075,26 +20989,22 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>4.748%</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21104,12 +21014,12 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C783" t="inlineStr"/>
@@ -21118,113 +21028,133 @@
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr"/>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
           <t>3</t>
@@ -21234,22 +21164,26 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G789" t="inlineStr">
         <is>
           <t>3</t>
@@ -21259,30 +21193,18 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
           <t>3</t>
@@ -21290,18 +21212,18 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
       <c r="G791" t="inlineStr">
@@ -21311,1610 +21233,17 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr"/>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G857"/>
+  <dimension ref="A1:G794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,10 +20198,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -20235,10 +20233,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -20268,10 +20264,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -20301,10 +20295,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -20338,10 +20330,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -20375,10 +20365,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -20408,10 +20396,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -20445,10 +20431,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -20482,10 +20466,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -20511,10 +20493,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -20548,10 +20528,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -20581,10 +20559,8 @@
         </is>
       </c>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -20610,10 +20586,8 @@
       </c>
       <c r="E765" t="inlineStr"/>
       <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -20639,10 +20613,8 @@
       </c>
       <c r="E766" t="inlineStr"/>
       <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="767">
@@ -20668,10 +20640,8 @@
       </c>
       <c r="E767" t="inlineStr"/>
       <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -20697,10 +20667,8 @@
       </c>
       <c r="E768" t="inlineStr"/>
       <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="769">
@@ -20718,10 +20686,8 @@
       <c r="D769" t="inlineStr"/>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -20747,10 +20713,8 @@
       </c>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="771">
@@ -20768,211 +20732,189 @@
       <c r="D771" t="inlineStr"/>
       <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsMAR/01</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr"/>
       <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr"/>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>Core PPI YoYFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>150.0K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>Jobless Claims 4-week AverageMAR/08</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
       <c r="G774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>PPIFEB</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>147.716</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
       <c r="F775" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>148.1</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr"/>
       <c r="F776" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -20984,26 +20926,22 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>-80Bcf</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>3</t>
@@ -21013,30 +20951,18 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
           <t>3</t>
@@ -21046,30 +20972,18 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21079,26 +20993,22 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>5.79%</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
+      <c r="F782" t="inlineStr"/>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21108,54 +21018,62 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr"/>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>6.63%</t>
+        </is>
+      </c>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>4.748%</t>
+        </is>
+      </c>
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
@@ -21164,71 +21082,75 @@
       <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr"/>
       <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr"/>
       <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>63.2</t>
+        </is>
+      </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
       <c r="D788" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
           <t>3</t>
@@ -21238,22 +21160,26 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
       <c r="D789" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G789" t="inlineStr">
         <is>
           <t>3</t>
@@ -21263,28 +21189,24 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeJAN</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
       <c r="D790" t="inlineStr">
         <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr"/>
       <c r="F790" t="inlineStr">
         <is>
-          <t>$ -3.0B</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
@@ -21294,20 +21216,28 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMFEB</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G791" t="inlineStr">
         <is>
           <t>3</t>
@@ -21315,18 +21245,18 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYFEB</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="inlineStr"/>
       <c r="G792" t="inlineStr">
@@ -21338,20 +21268,28 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
+        </is>
+      </c>
       <c r="C793" t="inlineStr"/>
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr"/>
       <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
+      <c r="G793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Sunday March 09 2025</t>
+          <t>Sunday March 16 2025</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -21361,1565 +21299,6 @@
       <c r="F794" t="inlineStr"/>
       <c r="G794" t="inlineStr"/>
     </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr"/>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr"/>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr"/>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
